--- a/biology/Zoologie/Hydrochoerus/Hydrochoerus.xlsx
+++ b/biology/Zoologie/Hydrochoerus/Hydrochoerus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cabiais (sensu lato), Cochons d'eau, Hydrochères
-Les hydrochères (Hydrochoerus, syn. Hydrochaeris[3]) sont un genre de rongeurs des hystricognathes dont la taxinomie et la classification sont encore discutées et varient selon les auteurs. En plus d'espèces fossiles, actuellement disparues, il comprend de gros rongeurs vivant dans les zones humides d'Amérique du Sud et Panama : le grand cabiai ou capybara (H. hydrochaeris), le plus gros de tous les rongeurs actuels, ainsi que le cabiaï de Panama, plus petit, à présent reconnu comme étant une espèce distincte (H. isthmius) grâce aux analyses génétiques montrant un caryotype différent[2]. Ces cabiais sont aussi appelés des cochons d'eau, autant à cause de leur aspect rappelant celui des cochons, qu'en référence à leur viande comestible qui en fait un gibier de chasse[3]. Ils sont herbivores.
+Les hydrochères (Hydrochoerus, syn. Hydrochaeris) sont un genre de rongeurs des hystricognathes dont la taxinomie et la classification sont encore discutées et varient selon les auteurs. En plus d'espèces fossiles, actuellement disparues, il comprend de gros rongeurs vivant dans les zones humides d'Amérique du Sud et Panama : le grand cabiai ou capybara (H. hydrochaeris), le plus gros de tous les rongeurs actuels, ainsi que le cabiaï de Panama, plus petit, à présent reconnu comme étant une espèce distincte (H. isthmius) grâce aux analyses génétiques montrant un caryotype différent. Ces cabiais sont aussi appelés des cochons d'eau, autant à cause de leur aspect rappelant celui des cochons, qu'en référence à leur viande comestible qui en fait un gibier de chasse. Ils sont herbivores.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom viendrait du tupi-guarani « cabiai », duquel serait aussi dérivé le mot « cobaye ». Ce nom amérindien désigne aussi une autre espèce de rongeur de la même zone géographique, le Cobaye domestique (Cavia porcellus) ou « cochon d'Inde », nom donné par les conquistadors qui s'étaient trompés de continent[4] et de ce que son cri est semblable à celui du porc.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom viendrait du tupi-guarani « cabiai », duquel serait aussi dérivé le mot « cobaye ». Ce nom amérindien désigne aussi une autre espèce de rongeur de la même zone géographique, le Cobaye domestique (Cavia porcellus) ou « cochon d'Inde », nom donné par les conquistadors qui s'étaient trompés de continent et de ce que son cri est semblable à celui du porc.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les hydrochères vivent dans les zones humides en Amérique du Sud.
 Le capybara se rencontre un peu partout, mais le cabiaï de Panama est localisé à l'Est du Panama, au Nord-ouest de la Colombie et à l'ouest du Venezuela.
@@ -575,35 +591,71 @@
           <t>Nomenclature et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon les auteurs, ce genre est classé dans la famille des Caviidae[2],[1], ou bien des Hydrochaeridae[5].
-Hydrochoerus admet de nombreux synonymes[2], dont plusieurs variantes très proches les unes des autres. Les bases taxinomiques divergent encore sur la validation de trois d'entre elles :
-Hydrochoerus Brisson, 1762[1],[6]
-Hydrochoeris Brisson, 1762[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon les auteurs, ce genre est classé dans la famille des Caviidae ou bien des Hydrochaeridae.
+Hydrochoerus admet de nombreux synonymes, dont plusieurs variantes très proches les unes des autres. Les bases taxinomiques divergent encore sur la validation de trois d'entre elles :
+Hydrochoerus Brisson, 1762,
+Hydrochoeris Brisson, 1762
 Hydrochaeris Brünnich, 1772 paramètre de Bioref « uBIO » non reconnu 
 Le genre Hydrochoerus (ou Hydrochoeris) a été décrit pour la première fois en 1762 par le zoologiste et physicien français Mathurin Jacques Brisson (1723-1806). Le synonyme Hydrochaeris, daté de 1772, est de Morten Thrane Brünnich (1737-1827), un  zoologiste et un minéralogiste danois.  
-Husson remet en cause en 1978 le travail de Brisson en 1762, qui ne suivait pas toujours une nomenclature binomiale, et propose de rendre non valides les noms se trouvant dans l'ouvrage. La Commission internationale de nomenclature zoologique décide cependant en 1998 de décréter certains de ces noms comme valides, dont Hydrochoerus[7],[8].
-Autres synonymes[2] :
+Husson remet en cause en 1978 le travail de Brisson en 1762, qui ne suivait pas toujours une nomenclature binomiale, et propose de rendre non valides les noms se trouvant dans l'ouvrage. La Commission internationale de nomenclature zoologique décide cependant en 1998 de décréter certains de ces noms comme valides, dont Hydrochoerus,.
+Autres synonymes :
 Capibara Moussy, 1860
 Capiguara Liais, 1872
 Hydrochaerus Erxleben, 1777
 Hydrocheirus Hollande and Batisse, 1959
 Hydrocherus F. Cuvier, 1829
 Hydrochoerus Wagler, 1830
-Xenohydrochoerus Rusconi, 1934
-Liste d'espèces
-Selon ITIS      (26 janv. 2013)[1] et Mammal Species of the World (version 3, 2005)  (26 janv. 2013)[2]:
+Xenohydrochoerus Rusconi, 1934</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hydrochoerus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrochoerus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nomenclature et systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (26 janv. 2013) et Mammal Species of the World (version 3, 2005)  (26 janv. 2013):
 Hydrochoerus hydrochaeris (Linnaeus, 1766) - Hydrochoeris hydrochaeris selon MSW - le Cabiaï (sensu stricto), Grand cabiaï ou Capybara
 Hydrochoerus isthmius Goldman, 1912 - Hydrochoeris isthmius selon MSW - le Cabiaï de Panama
-Selon Paleobiology Database                   (26 janv. 2013)[9] :
+Selon Paleobiology Database                   (26 janv. 2013) :
 †Hydrochoerus ballesterensis Rusconi 1954
 Hydrochoeris hydrochaeris
 Hydrochoeris isthmius
 †Hydrochoerus lydekkeri Moreno 1888
 †Hydrochoerus paranensis Ameghino 1883
 Auxquels s'ajoute une autre espèce éteinte :
-†Hydrochoerus gaylordi, endémique de Grenade[10]</t>
+†Hydrochoerus gaylordi, endémique de Grenade</t>
         </is>
       </c>
     </row>
